--- a/content/notes/2022-11-22-coffee/ratings.xlsx
+++ b/content/notes/2022-11-22-coffee/ratings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshvardhan/Dropbox/personal-website/content/notes/2022-11-22-coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64155F0-CADB-7449-B022-C972131B450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53201FE6-5A03-8341-B243-C7EC55AAA932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{A1C961AD-1032-0C4B-BD0D-E86CA00B5675}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Cafe</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Best coffee on campus; Costa Rica Blend (Dark)</t>
+  </si>
+  <si>
+    <t>The Spice &amp; Tea Exchange of Knoxville</t>
+  </si>
+  <si>
+    <t>Best tea collection; you can smell/taste tea before buying</t>
   </si>
 </sst>
 </file>
@@ -468,12 +474,12 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
   </cols>
@@ -516,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -578,7 +584,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/content/notes/2022-11-22-coffee/ratings.xlsx
+++ b/content/notes/2022-11-22-coffee/ratings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshvardhan/Dropbox/personal-website/content/notes/2022-11-22-coffee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshvardhan/Library/CloudStorage/Dropbox/Personal/personal-website/content/notes/2022-11-22-coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53201FE6-5A03-8341-B243-C7EC55AAA932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A2F12-B2AA-C544-9F48-82E7E814C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{A1C961AD-1032-0C4B-BD0D-E86CA00B5675}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCBF920-9102-9C4D-B302-03954B490F81}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -507,104 +507,100 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.aleraes.live/" xr:uid="{A6634569-574F-5640-B2F9-73BD44EE92CC}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://frothymonkey.com/locations/downtown-knoxville-tn/" xr:uid="{3317BDA1-A176-B44D-B8B1-AD0250C81CDF}"/>
-    <hyperlink ref="A5" r:id="rId3" display="http://www.thefrenchmarketknoxville.com/" xr:uid="{C475DD30-62E7-214D-AC00-740A6CD1AA44}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.coffeeandchocolate.com/" xr:uid="{56ACDDAB-FF1D-FE41-BA65-9D9DD8F0536C}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www.honeybeecoffeeco.com/" xr:uid="{BFA000F1-6C85-684B-AD17-21F9E9AB148B}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://backroadsmarketknox.com/" xr:uid="{ED6D0F7F-EC2A-2648-808A-7035F44851EC}"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://jacks-of-knoxville.square.site/" xr:uid="{33CDFD97-B0FC-AC4E-8565-451B026A0F4B}"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://tgroast.com/" xr:uid="{20DC7671-F350-5A44-99A9-CEE7ACF76AB8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
